--- a/results/github_language_statistics.xlsx
+++ b/results/github_language_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,23 +493,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>EMPTY</t>
+          <t>JavaScript</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>718</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
-        <v>1.857142857142857</v>
+        <v>4.079545454545454</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -518,23 +518,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>TypeScript</t>
+          <t>EMPTY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>560</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>6.91358024691358</v>
+        <v>1.62962962962963</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>C++</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>541</v>
+        <v>276</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>6.7625</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -568,23 +568,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>JavaScript</t>
+          <t>Dart</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>363</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>3.490384615384615</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -593,23 +593,23 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>C++</t>
+          <t>TypeScript</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>1186</v>
+        <v>379</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>576</v>
+        <v>41</v>
       </c>
       <c r="F7" t="n">
-        <v>33.88571428571429</v>
+        <v>7.58</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -618,23 +618,23 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Rust</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C8" t="n">
-        <v>245</v>
+        <v>409</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>16.33333333333333</v>
+        <v>6.196969696969697</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -643,23 +643,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Vue</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
-        <v>122</v>
+        <v>433</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F9" t="n">
-        <v>6.421052631578948</v>
+        <v>7.596491228070176</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -668,23 +668,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>7.8</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -693,23 +693,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>374</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
-        <v>3.111111111111111</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -718,23 +718,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>4.190476190476191</v>
+        <v>5.176470588235294</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -743,23 +743,23 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>Rust</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3333333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -768,23 +768,23 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Kotlin</t>
+          <t>Clojure</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>20.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -793,23 +793,23 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Go</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>407</v>
+        <v>270</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F15" t="n">
-        <v>6.898305084745763</v>
+        <v>10.8</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -818,23 +818,23 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Shell</t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>70</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19</v>
+      </c>
+      <c r="F16" t="n">
         <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>28</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -843,23 +843,23 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Ruby</t>
+          <t>C#</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>9.666666666666666</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -868,23 +868,23 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Swift</t>
+          <t>Assembly</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>3.888888888888889</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -893,23 +893,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Jupyter Notebook</t>
+          <t>Vim script</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>42</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>23</v>
+      </c>
+      <c r="F19" t="n">
         <v>14</v>
-      </c>
-      <c r="C19" t="n">
-        <v>21</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.5</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -918,23 +918,23 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Kotlin</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D20" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>53</v>
+        <v>3.545454545454545</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -943,23 +943,23 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>TeX</t>
+          <t>Swift</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -968,23 +968,23 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Haskell</t>
+          <t>Julia</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -993,23 +993,23 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HTML</t>
+          <t>Markdown</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>1.222222222222222</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1018,23 +1018,23 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jinja</t>
+          <t>Ruby</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>4.625</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1043,23 +1043,23 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Standard ML</t>
+          <t>SCSS</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1068,23 +1068,23 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>Objective-C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>11.8</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1093,23 +1093,23 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>SCSS</t>
+          <t>Scala</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>9.6</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1118,23 +1118,23 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Markdown</t>
+          <t>Lua</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1143,23 +1143,23 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Vim script</t>
+          <t>HTML</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1168,23 +1168,23 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Scala</t>
+          <t>Roff</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1193,23 +1193,23 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Objective-C</t>
+          <t>Haskell</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>20.66666666666667</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1218,23 +1218,23 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Dart</t>
+          <t>Batchfile</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1243,23 +1243,23 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CMake</t>
+          <t>Emacs Lisp</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1268,23 +1268,23 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Blade</t>
+          <t>OCaml</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1293,25 +1293,250 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Jsonnet</t>
+          <t>Elixir</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AsciiDoc</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>CoffeeScript</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>TeX</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Makefile</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Mustache</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>312</v>
+      </c>
+      <c r="D40" t="n">
+        <v>312</v>
+      </c>
+      <c r="E40" t="n">
+        <v>312</v>
+      </c>
+      <c r="F40" t="n">
+        <v>312</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Objective-C++</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Perl</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Dockerfile</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Jinja</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
         <v>0</v>
       </c>
     </row>
